--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23362,6 +23362,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.oschina.net/question/tag/jeesite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>http</t>
     </r>
@@ -23377,6 +23381,10 @@
       </rPr>
       <t>://jeesite.com</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源问答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23520,14 +23528,6 @@
   </si>
   <si>
     <t>客户方使用的系统管理员，用于一些常用的基础数据配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gitee.com/thinkgem/jeesite4/issues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题反馈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24443,7 +24443,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7406</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -27004,7 +27004,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -27510,7 +27510,7 @@
         <v>7066</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>7395</v>
+        <v>7397</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>78</v>
@@ -27530,10 +27530,10 @@
         <v>7067</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>7399</v>
+        <v>7401</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>7396</v>
+        <v>7398</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>79</v>
@@ -27553,10 +27553,10 @@
         <v>7067</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>7400</v>
+        <v>7402</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>7397</v>
+        <v>7399</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>7175</v>
@@ -27576,10 +27576,10 @@
         <v>7067</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>7401</v>
+        <v>7403</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>7398</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>7055</v>
@@ -27749,7 +27749,7 @@
         <v>57</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -27798,7 +27798,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -28310,7 +28310,7 @@
         <v>7069</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>7408</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -28336,7 +28336,7 @@
         <v>7069</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -28482,7 +28482,7 @@
         <v>57</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -28770,7 +28770,7 @@
         <v>57</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>7407</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -28807,9 +28807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30407,7 +30407,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>7404</v>
+        <v>7406</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>228</v>
@@ -30419,7 +30419,7 @@
         <v>7148</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>7402</v>
+        <v>7404</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>362</v>
@@ -30442,7 +30442,7 @@
         <v>244</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>7405</v>
+        <v>7407</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>210</v>
@@ -30454,7 +30454,7 @@
         <v>7148</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>7403</v>
+        <v>7405</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>363</v>
@@ -30750,7 +30750,7 @@
         <v>7329</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>282</v>
@@ -30785,7 +30785,7 @@
         <v>82</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>7388</v>
@@ -30800,7 +30800,7 @@
         <v>223</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>7390</v>
+        <v>7391</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>77</v>
@@ -30817,10 +30817,10 @@
         <v>82</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>7391</v>
+        <v>7393</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>85</v>
@@ -30832,7 +30832,7 @@
         <v>223</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>7392</v>
+        <v>7394</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>77</v>
@@ -30849,10 +30849,10 @@
         <v>82</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>7412</v>
+        <v>7392</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>79</v>
@@ -30864,7 +30864,7 @@
         <v>223</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>7411</v>
+        <v>7390</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>77</v>
@@ -30881,10 +30881,10 @@
         <v>82</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>7394</v>
+        <v>7396</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>7409</v>
+        <v>7411</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>7055</v>
@@ -30896,7 +30896,7 @@
         <v>223</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>7393</v>
+        <v>7395</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>77</v>
@@ -31061,7 +31061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
@@ -31134,7 +31134,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7410</v>
+        <v>7412</v>
       </c>
     </row>
   </sheetData>
